--- a/data/trans_orig/P24E-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P24E-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>20889</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14011</v>
+        <v>13602</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29157</v>
+        <v>29465</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3212106645028349</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2154399754211746</v>
+        <v>0.2091623292051167</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4483451724717914</v>
+        <v>0.4530826650765539</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -764,19 +764,19 @@
         <v>15189</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9509</v>
+        <v>9129</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20957</v>
+        <v>20846</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4567625072131796</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2859560968279011</v>
+        <v>0.2745372646411285</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6302036485882702</v>
+        <v>0.6268738038413637</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>34</v>
@@ -785,19 +785,19 @@
         <v>36079</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26763</v>
+        <v>26904</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>45491</v>
+        <v>45951</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3670729718949746</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2722970299056703</v>
+        <v>0.2737311222382259</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4628347122434428</v>
+        <v>0.4675170948470904</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>35792</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27009</v>
+        <v>27123</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>43423</v>
+        <v>43609</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5503624232963029</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4153144515111156</v>
+        <v>0.4170711921966224</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6677070057352066</v>
+        <v>0.6705684192971456</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -835,19 +835,19 @@
         <v>11206</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6056</v>
+        <v>5926</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16557</v>
+        <v>17313</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3369891342565305</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1820993658830399</v>
+        <v>0.1782127596294663</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4979098937045024</v>
+        <v>0.5206305773161142</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>47</v>
@@ -856,19 +856,19 @@
         <v>46998</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>37951</v>
+        <v>37530</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>57244</v>
+        <v>57278</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4781701817483604</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3861240517430365</v>
+        <v>0.3818392124367616</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5824185746979862</v>
+        <v>0.5827639717672404</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>8352</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3855</v>
+        <v>3996</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15112</v>
+        <v>15512</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1284269122008622</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05928299965721998</v>
+        <v>0.06145001198449897</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.232381398787484</v>
+        <v>0.2385263559935621</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -906,19 +906,19 @@
         <v>6859</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2827</v>
+        <v>3038</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12835</v>
+        <v>13112</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2062483585302899</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08500748299739522</v>
+        <v>0.09137070672080899</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3859656049827823</v>
+        <v>0.3942865605280356</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>14</v>
@@ -927,19 +927,19 @@
         <v>15211</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8827</v>
+        <v>9236</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>23372</v>
+        <v>24279</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.154756846356665</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08981081189188468</v>
+        <v>0.09397005179380884</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2377944482770583</v>
+        <v>0.2470175632511739</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>12619</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7137</v>
+        <v>7103</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19385</v>
+        <v>19850</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2983547676870157</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1687394169836657</v>
+        <v>0.1679494839732617</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4583184717192394</v>
+        <v>0.4693147073723505</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>20</v>
@@ -1052,19 +1052,19 @@
         <v>20415</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13919</v>
+        <v>13517</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>26965</v>
+        <v>27794</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4262811668823515</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2906365843035592</v>
+        <v>0.2822484338310475</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5630310505500311</v>
+        <v>0.5803477647968966</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>32</v>
@@ -1073,19 +1073,19 @@
         <v>33034</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>24702</v>
+        <v>24474</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>42245</v>
+        <v>43162</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3662875192677515</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2739015162605613</v>
+        <v>0.271368853575513</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4684209508064973</v>
+        <v>0.4785809755627219</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>24216</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17289</v>
+        <v>16987</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>30759</v>
+        <v>30790</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5725393444002326</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4087772153268316</v>
+        <v>0.4016277399887782</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7272556268848342</v>
+        <v>0.727973409376677</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>21</v>
@@ -1123,19 +1123,19 @@
         <v>20824</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>14357</v>
+        <v>14215</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>28347</v>
+        <v>28333</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4348090489989629</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2997835795520057</v>
+        <v>0.2968236817304629</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5919014724690054</v>
+        <v>0.5916043690970556</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>42</v>
@@ -1144,19 +1144,19 @@
         <v>45039</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>35340</v>
+        <v>35428</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>55139</v>
+        <v>54941</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4994004301379061</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3918568032471186</v>
+        <v>0.3928324094883677</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6113901392237852</v>
+        <v>0.6091867904852973</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>5461</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1972</v>
+        <v>1920</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11738</v>
+        <v>11564</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1291058879127517</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04663271013857369</v>
+        <v>0.04539040277585683</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2775295936305539</v>
+        <v>0.2734076215159696</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1194,19 +1194,19 @@
         <v>6653</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2755</v>
+        <v>2938</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12234</v>
+        <v>12301</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1389097841186856</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05752629875654847</v>
+        <v>0.06135145832378788</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2554499449339068</v>
+        <v>0.2568447393905618</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1215,19 +1215,19 @@
         <v>12113</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6491</v>
+        <v>6573</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20079</v>
+        <v>19295</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1343120505943424</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07196830510654377</v>
+        <v>0.07288428700369931</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2226343316420561</v>
+        <v>0.2139460739752712</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>25344</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17217</v>
+        <v>17631</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>33983</v>
+        <v>34549</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3149005903502043</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2139265043109313</v>
+        <v>0.2190686359636809</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4222489092105844</v>
+        <v>0.429274081868824</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -1340,19 +1340,19 @@
         <v>6563</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2844</v>
+        <v>3004</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10795</v>
+        <v>10827</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4167832798787984</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1806118586583664</v>
+        <v>0.1907775530477516</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6855548545729948</v>
+        <v>0.6875577923840432</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>30</v>
@@ -1361,19 +1361,19 @@
         <v>31907</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>22522</v>
+        <v>22978</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>42150</v>
+        <v>41686</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3315725208852021</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2340504859590569</v>
+        <v>0.238783334591558</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4380194654151311</v>
+        <v>0.433200720341366</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>43461</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>34884</v>
+        <v>34765</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>52501</v>
+        <v>52872</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5400139898519926</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4334430659232798</v>
+        <v>0.4319547437124985</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.652331331692852</v>
+        <v>0.6569361675037669</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1411,19 +1411,19 @@
         <v>7257</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3728</v>
+        <v>3221</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11773</v>
+        <v>11321</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4608459981282479</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2367692660113387</v>
+        <v>0.2045714342571641</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7476440932151482</v>
+        <v>0.7189525553954574</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>50</v>
@@ -1432,19 +1432,19 @@
         <v>50718</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>40905</v>
+        <v>40629</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>60436</v>
+        <v>60069</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5270590584036712</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4250769954148847</v>
+        <v>0.4222097691589021</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6280383946775355</v>
+        <v>0.6242277157856246</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>11677</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6575</v>
+        <v>6966</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18851</v>
+        <v>19110</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1450854197978031</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08169058951274288</v>
+        <v>0.08654781040094904</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2342216435348542</v>
+        <v>0.237442148310679</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5850</v>
+        <v>6180</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1223707219929537</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3714806182472519</v>
+        <v>0.3924324531851845</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -1503,19 +1503,19 @@
         <v>13604</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7955</v>
+        <v>8025</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>21334</v>
+        <v>21057</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1413684207111268</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08266719185289018</v>
+        <v>0.08339453959359726</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2217028322075214</v>
+        <v>0.218816719944835</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>53944</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41593</v>
+        <v>42454</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>66801</v>
+        <v>67499</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3266133603066511</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2518323450371087</v>
+        <v>0.2570415805996625</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.404459381171245</v>
+        <v>0.4086862805902033</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>30</v>
@@ -1628,19 +1628,19 @@
         <v>32786</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24208</v>
+        <v>23942</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43681</v>
+        <v>41631</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3792846847380373</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2800513924280464</v>
+        <v>0.276977077339812</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5053295295585047</v>
+        <v>0.4816128390763664</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>82</v>
@@ -1649,19 +1649,19 @@
         <v>86730</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>71899</v>
+        <v>73205</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>101552</v>
+        <v>103018</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3447091030838922</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2857648833689604</v>
+        <v>0.290954761606445</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4036188545963773</v>
+        <v>0.4094469496712666</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>88886</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>75625</v>
+        <v>75483</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>101308</v>
+        <v>101297</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5381776632943663</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.457886159427966</v>
+        <v>0.4570214858502394</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.613387563867632</v>
+        <v>0.6133190558643041</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>48</v>
@@ -1699,19 +1699,19 @@
         <v>47829</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>37682</v>
+        <v>37836</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>56840</v>
+        <v>56290</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5533118631545398</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4359308296692925</v>
+        <v>0.4377122289226149</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6575534552167813</v>
+        <v>0.6511905178652136</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>135</v>
@@ -1720,19 +1720,19 @@
         <v>136715</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>122028</v>
+        <v>120874</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>152821</v>
+        <v>151905</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5433771639859774</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4850027286311943</v>
+        <v>0.4804141475092195</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6073911174419744</v>
+        <v>0.6037472952017425</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>22331</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14681</v>
+        <v>14734</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>32472</v>
+        <v>32437</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1352089763989825</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08888680349251442</v>
+        <v>0.08920834589097271</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.196606432232204</v>
+        <v>0.1963945486308975</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -1770,19 +1770,19 @@
         <v>5826</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2095</v>
+        <v>2043</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12301</v>
+        <v>12593</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06740345210742284</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02424136504099056</v>
+        <v>0.02363733918460582</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.142310835771909</v>
+        <v>0.1456808853074145</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>28</v>
@@ -1791,19 +1791,19 @@
         <v>28158</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>18588</v>
+        <v>19349</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>38649</v>
+        <v>39256</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1119137329301305</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0738767043393601</v>
+        <v>0.07690483979006789</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1536125860321939</v>
+        <v>0.1560250617017582</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>15600</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9291</v>
+        <v>9144</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22356</v>
+        <v>22456</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3122289332299172</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.185959856873778</v>
+        <v>0.1830164779474528</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4474497285630486</v>
+        <v>0.4494515179981749</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>16</v>
@@ -1916,19 +1916,19 @@
         <v>17057</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10676</v>
+        <v>10610</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>25420</v>
+        <v>25078</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2867456650702938</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.179480840053292</v>
+        <v>0.1783687241058673</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4273401400519548</v>
+        <v>0.4215813249327584</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>32</v>
@@ -1937,19 +1937,19 @@
         <v>32657</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>24030</v>
+        <v>23004</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>44424</v>
+        <v>43585</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2983787395315974</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2195585096256106</v>
+        <v>0.210184395931979</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4058870395801474</v>
+        <v>0.3982240416850564</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>24971</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17516</v>
+        <v>17841</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>32686</v>
+        <v>32046</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4997965558863828</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3505730973940546</v>
+        <v>0.3570901551144715</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6542025710536329</v>
+        <v>0.6413947179747492</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>30</v>
@@ -1987,19 +1987,19 @@
         <v>31771</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>23231</v>
+        <v>23287</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>39075</v>
+        <v>39649</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5341017198179908</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3905294590219747</v>
+        <v>0.3914763230459533</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6568941378007082</v>
+        <v>0.6665400363192019</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>53</v>
@@ -2008,19 +2008,19 @@
         <v>56742</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>45232</v>
+        <v>46153</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>66212</v>
+        <v>67600</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5184414629025952</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4132725974749826</v>
+        <v>0.4216901833508136</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6049608742203708</v>
+        <v>0.6176442133605168</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>9392</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4511</v>
+        <v>4657</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15806</v>
+        <v>16006</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1879745108837</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09028824164538973</v>
+        <v>0.09321646827204984</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3163560704787884</v>
+        <v>0.3203484960200591</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -2058,19 +2058,19 @@
         <v>10657</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5694</v>
+        <v>6003</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17746</v>
+        <v>16974</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1791526151117154</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09571466928203029</v>
+        <v>0.1009235764105698</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2983262190161759</v>
+        <v>0.2853473613925057</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>20</v>
@@ -2079,19 +2079,19 @@
         <v>20049</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>12983</v>
+        <v>12850</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>29353</v>
+        <v>29211</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1831797975658074</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1186215078435463</v>
+        <v>0.1174059579426501</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2681927316974883</v>
+        <v>0.2668922801166513</v>
       </c>
     </row>
     <row r="23">
@@ -2183,7 +2183,7 @@
         <v>4471</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1620</v>
+        <v>1697</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>5494</v>
@@ -2192,7 +2192,7 @@
         <v>0.8138539730347695</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2948287745077213</v>
+        <v>0.3089529243731314</v>
       </c>
       <c r="I24" s="6" t="n">
         <v>1</v>
@@ -2204,19 +2204,19 @@
         <v>17486</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11307</v>
+        <v>11304</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>24952</v>
+        <v>25217</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3287844856111072</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.212610275870448</v>
+        <v>0.2125512016379655</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4691809632380788</v>
+        <v>0.474160535008145</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>22</v>
@@ -2225,19 +2225,19 @@
         <v>21957</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>15190</v>
+        <v>14149</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>30250</v>
+        <v>29331</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3742020728478531</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2588709642668299</v>
+        <v>0.2411400912475717</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.515531209814122</v>
+        <v>0.4998721916169806</v>
       </c>
     </row>
     <row r="25">
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3874</v>
+        <v>3797</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1861460269652306</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7051712254922786</v>
+        <v>0.6910470756268686</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>24</v>
@@ -2275,19 +2275,19 @@
         <v>24198</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17564</v>
+        <v>16480</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>31173</v>
+        <v>31310</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4549900145136504</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3302467760263675</v>
+        <v>0.3098678351130752</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5861440782348846</v>
+        <v>0.5887285674870835</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>25</v>
@@ -2296,19 +2296,19 @@
         <v>25220</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>17616</v>
+        <v>18127</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>32163</v>
+        <v>33920</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4298178575874192</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3002228762575591</v>
+        <v>0.3089312021722217</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5481444451135588</v>
+        <v>0.5780723382239501</v>
       </c>
     </row>
     <row r="26">
@@ -2338,19 +2338,19 @@
         <v>11500</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6250</v>
+        <v>6277</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>18934</v>
+        <v>19278</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2162254998752423</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1175151566630903</v>
+        <v>0.1180226851593555</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.35601346421833</v>
+        <v>0.3624870977845127</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>11</v>
@@ -2359,19 +2359,19 @@
         <v>11500</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6048</v>
+        <v>6038</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>18460</v>
+        <v>19315</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1959800695647277</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1030651159109051</v>
+        <v>0.1029081032770155</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.314609139619118</v>
+        <v>0.3291682890999845</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>132867</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>113632</v>
+        <v>114957</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>153312</v>
+        <v>152808</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3253132344782613</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2782177999427008</v>
+        <v>0.2814619164886784</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3753703101909767</v>
+        <v>0.3741349885423463</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>104</v>
@@ -2484,19 +2484,19 @@
         <v>109496</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>93765</v>
+        <v>93438</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>126556</v>
+        <v>127155</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3699174464311785</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3167721727783087</v>
+        <v>0.3156651225304464</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.427552435019493</v>
+        <v>0.4295734753210846</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>232</v>
@@ -2505,19 +2505,19 @@
         <v>242364</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>218116</v>
+        <v>216813</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>266946</v>
+        <v>268403</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3440559095610179</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3096343440426521</v>
+        <v>0.307784729254487</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.378952966842611</v>
+        <v>0.3810203803007851</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>218349</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>198717</v>
+        <v>198464</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>238296</v>
+        <v>238620</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5346075235751395</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4865409762954649</v>
+        <v>0.4859215723803961</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5834454449106451</v>
+        <v>0.5842383421479215</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>141</v>
@@ -2555,19 +2555,19 @@
         <v>143085</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>126631</v>
+        <v>127650</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>162609</v>
+        <v>161263</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4833906273413048</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4278059427603758</v>
+        <v>0.4312474600113824</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.549350940204441</v>
+        <v>0.5448048634894723</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>352</v>
@@ -2576,19 +2576,19 @@
         <v>361434</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>335356</v>
+        <v>333949</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>387058</v>
+        <v>387889</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5130862007486919</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4760662672929136</v>
+        <v>0.4740685927456349</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5494620377772951</v>
+        <v>0.5506413818778557</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>57212</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>44704</v>
+        <v>43799</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>72739</v>
+        <v>72443</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1400792419465991</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1094527144510388</v>
+        <v>0.1072385856896271</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1780945593679593</v>
+        <v>0.1773688450864556</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>42</v>
@@ -2626,19 +2626,19 @@
         <v>43421</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>31915</v>
+        <v>32754</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>56856</v>
+        <v>57030</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1466919262275166</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1078200847224752</v>
+        <v>0.1106534879474283</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1920801487515522</v>
+        <v>0.1926676151804067</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>99</v>
@@ -2647,19 +2647,19 @@
         <v>100634</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>83355</v>
+        <v>82444</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>119803</v>
+        <v>120583</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1428578896902901</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.118329108264689</v>
+        <v>0.1170360473128869</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1700703361654061</v>
+        <v>0.1711784389637407</v>
       </c>
     </row>
     <row r="31">
@@ -2993,19 +2993,19 @@
         <v>29807</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21119</v>
+        <v>21126</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39692</v>
+        <v>40476</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3655423584968081</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2589915207125962</v>
+        <v>0.2590834870653549</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.486767568458696</v>
+        <v>0.4963769360097002</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -3014,19 +3014,19 @@
         <v>27199</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19119</v>
+        <v>18859</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34422</v>
+        <v>34350</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5209969030556002</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3662348028285834</v>
+        <v>0.3612438726785113</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6593704083639143</v>
+        <v>0.6579758589472997</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>53</v>
@@ -3035,19 +3035,19 @@
         <v>57006</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44959</v>
+        <v>45724</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69806</v>
+        <v>69884</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4262195642413648</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3361457856402052</v>
+        <v>0.3418664547734238</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5219203900539588</v>
+        <v>0.5225015492110761</v>
       </c>
     </row>
     <row r="5">
@@ -3064,19 +3064,19 @@
         <v>43630</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>33350</v>
+        <v>32481</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>53418</v>
+        <v>53177</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5350499429436706</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4089807374368765</v>
+        <v>0.3983350452145218</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6550902669481268</v>
+        <v>0.652135191434587</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -3085,19 +3085,19 @@
         <v>20094</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13660</v>
+        <v>12980</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28750</v>
+        <v>27637</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3849083688232649</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2616701508457607</v>
+        <v>0.2486297349295815</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5507080396699044</v>
+        <v>0.5293893422668562</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>54</v>
@@ -3106,19 +3106,19 @@
         <v>63724</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>50880</v>
+        <v>51532</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>75831</v>
+        <v>76699</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4764465022429065</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3804163573106311</v>
+        <v>0.3852949855185165</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5669681937739051</v>
+        <v>0.5734596466018782</v>
       </c>
     </row>
     <row r="6">
@@ -3135,19 +3135,19 @@
         <v>8106</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3704</v>
+        <v>3696</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16672</v>
+        <v>17193</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09940769855952131</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04542441043704731</v>
+        <v>0.04532817128379091</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2044531653583453</v>
+        <v>0.2108446881399344</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -3156,19 +3156,19 @@
         <v>4912</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1894</v>
+        <v>1931</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10688</v>
+        <v>10553</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09409472812113494</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03627642206145001</v>
+        <v>0.03698108664115501</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2047247645829765</v>
+        <v>0.2021398514113734</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -3177,19 +3177,19 @@
         <v>13018</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7213</v>
+        <v>6808</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>22599</v>
+        <v>21870</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09733393351572873</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05393116241269585</v>
+        <v>0.05090489556684286</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1689655177555434</v>
+        <v>0.1635199448741164</v>
       </c>
     </row>
     <row r="7">
@@ -3281,19 +3281,19 @@
         <v>34745</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>25041</v>
+        <v>24999</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>44781</v>
+        <v>44144</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4409943377511455</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3178321941425035</v>
+        <v>0.3172920627209878</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5683734298691423</v>
+        <v>0.5602894053532248</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>24</v>
@@ -3302,19 +3302,19 @@
         <v>26311</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>18658</v>
+        <v>18180</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>35819</v>
+        <v>35672</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3652775502752906</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2590337437353936</v>
+        <v>0.2523978927776115</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4972765524075045</v>
+        <v>0.4952354211328399</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>52</v>
@@ -3323,19 +3323,19 @@
         <v>61056</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>47979</v>
+        <v>48397</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>74937</v>
+        <v>74973</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4048323747512016</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3181244954209438</v>
+        <v>0.3208999369586465</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4968713600348887</v>
+        <v>0.4971081476744741</v>
       </c>
     </row>
     <row r="9">
@@ -3352,19 +3352,19 @@
         <v>37817</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>28043</v>
+        <v>28405</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>47805</v>
+        <v>47532</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.479987899588586</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3559323257919367</v>
+        <v>0.3605243129718142</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6067599530071285</v>
+        <v>0.6032955173182095</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>28</v>
@@ -3373,19 +3373,19 @@
         <v>33696</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>24422</v>
+        <v>24781</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>42605</v>
+        <v>43426</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4678018858619506</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3390548684026787</v>
+        <v>0.3440415452473162</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.591496542639203</v>
+        <v>0.6028853095938473</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>63</v>
@@ -3394,19 +3394,19 @@
         <v>71513</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>58006</v>
+        <v>58043</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>85370</v>
+        <v>85202</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4741679197374873</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3846113281443054</v>
+        <v>0.3848534462771656</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5660469237633872</v>
+        <v>0.5649317582800221</v>
       </c>
     </row>
     <row r="10">
@@ -3423,19 +3423,19 @@
         <v>6226</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2318</v>
+        <v>2116</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12615</v>
+        <v>12962</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07901776266026848</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02941740898890243</v>
+        <v>0.0268526381063388</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1601175159708867</v>
+        <v>0.1645167141990583</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -3444,19 +3444,19 @@
         <v>12023</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6011</v>
+        <v>6814</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20081</v>
+        <v>20792</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1669205638627588</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08345051719101812</v>
+        <v>0.0946000260870573</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.278782969983054</v>
+        <v>0.2886605239786283</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -3465,19 +3465,19 @@
         <v>18249</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11283</v>
+        <v>10888</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28486</v>
+        <v>27900</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1209997055113111</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0748090549954936</v>
+        <v>0.07219261857216128</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1888782651459957</v>
+        <v>0.184990083502404</v>
       </c>
     </row>
     <row r="11">
@@ -3569,19 +3569,19 @@
         <v>57592</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>46264</v>
+        <v>45420</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>69692</v>
+        <v>69470</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4119761303535724</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3309403051146737</v>
+        <v>0.3249034054421035</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4985330096721349</v>
+        <v>0.4969426892068828</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>19</v>
@@ -3590,19 +3590,19 @@
         <v>20539</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>14264</v>
+        <v>13819</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>26420</v>
+        <v>26478</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5440857955271694</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3778737896086527</v>
+        <v>0.3660697536863128</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6998776406655879</v>
+        <v>0.7014328557207765</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>74</v>
@@ -3611,19 +3611,19 @@
         <v>78130</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>63952</v>
+        <v>63987</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>92440</v>
+        <v>91380</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4400647581766098</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3602049984512852</v>
+        <v>0.3604019209272016</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5206602762670341</v>
+        <v>0.5146916746327543</v>
       </c>
     </row>
     <row r="13">
@@ -3640,19 +3640,19 @@
         <v>61399</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>50315</v>
+        <v>48470</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>73745</v>
+        <v>74151</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4392087535285834</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3599193223869983</v>
+        <v>0.3467235651392641</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5275219743902637</v>
+        <v>0.5304287376929229</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -3661,19 +3661,19 @@
         <v>14115</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8376</v>
+        <v>8629</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20166</v>
+        <v>21012</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3739115917387347</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2218773019018844</v>
+        <v>0.2285922961541349</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5342091833525994</v>
+        <v>0.5566255204199818</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>70</v>
@@ -3682,19 +3682,19 @@
         <v>75514</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>61582</v>
+        <v>62885</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>90852</v>
+        <v>89266</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4253255325469419</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3468578049450476</v>
+        <v>0.3541975862387344</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.511718022940868</v>
+        <v>0.5027852897801111</v>
       </c>
     </row>
     <row r="14">
@@ -3711,19 +3711,19 @@
         <v>20804</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12468</v>
+        <v>11757</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>31196</v>
+        <v>32494</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1488151161178441</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08918572106391547</v>
+        <v>0.08410411828467218</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2231527263979572</v>
+        <v>0.2324385007073558</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -3732,19 +3732,19 @@
         <v>3096</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8151</v>
+        <v>8077</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08200261273409588</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02583867482950512</v>
+        <v>0.02556024570685974</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2159158711878436</v>
+        <v>0.2139748548231082</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>18</v>
@@ -3753,19 +3753,19 @@
         <v>23899</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>14975</v>
+        <v>15068</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>39218</v>
+        <v>35506</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1346097092764483</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08434449066652923</v>
+        <v>0.08486872641478678</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2208922818795979</v>
+        <v>0.1999844612354869</v>
       </c>
     </row>
     <row r="15">
@@ -3857,19 +3857,19 @@
         <v>73552</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>59103</v>
+        <v>60698</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>87828</v>
+        <v>88863</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3204382558382839</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2574900347535467</v>
+        <v>0.2644365639261969</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3826330471674362</v>
+        <v>0.3871428098342701</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>61</v>
@@ -3878,19 +3878,19 @@
         <v>64106</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>51779</v>
+        <v>51832</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>75188</v>
+        <v>76407</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4275040919624965</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3453008998617189</v>
+        <v>0.3456518493566512</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5014071150283085</v>
+        <v>0.5095376617073892</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>131</v>
@@ -3899,19 +3899,19 @@
         <v>137658</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>116617</v>
+        <v>117919</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>157857</v>
+        <v>158727</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3627449774259606</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3073004025837048</v>
+        <v>0.3107304926064695</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4159713056514238</v>
+        <v>0.4182631171860041</v>
       </c>
     </row>
     <row r="17">
@@ -3928,19 +3928,19 @@
         <v>119732</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>103844</v>
+        <v>104143</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>135455</v>
+        <v>135546</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5216263688337072</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.452407597547332</v>
+        <v>0.4537122857234953</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.590127159561769</v>
+        <v>0.5905235555811553</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>56</v>
@@ -3949,19 +3949,19 @@
         <v>60757</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>48907</v>
+        <v>48848</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>73636</v>
+        <v>73220</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4051707658800363</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3261472446890388</v>
+        <v>0.3257562319996826</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.491059050147073</v>
+        <v>0.4882816206427689</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>165</v>
@@ -3970,19 +3970,19 @@
         <v>180489</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>157974</v>
+        <v>158934</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>198855</v>
+        <v>200001</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4756093110136004</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.416278561500788</v>
+        <v>0.4188086075611338</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5240046442815792</v>
+        <v>0.5270250246063567</v>
       </c>
     </row>
     <row r="18">
@@ -3999,19 +3999,19 @@
         <v>36252</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>25763</v>
+        <v>26702</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>49250</v>
+        <v>50362</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1579353753280089</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1122400933898981</v>
+        <v>0.1163284534976116</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2145633279436569</v>
+        <v>0.2194085041585529</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>22</v>
@@ -4020,19 +4020,19 @@
         <v>25091</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16113</v>
+        <v>16220</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>36440</v>
+        <v>36353</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1673251421574672</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1074498699628483</v>
+        <v>0.1081667377481538</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2430059409018821</v>
+        <v>0.2424252947077614</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>54</v>
@@ -4041,19 +4041,19 @@
         <v>61343</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>47946</v>
+        <v>47248</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>77710</v>
+        <v>79781</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1616457115604391</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1263428893577373</v>
+        <v>0.124503641108757</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2047742796660065</v>
+        <v>0.2102324184034247</v>
       </c>
     </row>
     <row r="19">
@@ -4145,19 +4145,19 @@
         <v>36954</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>28861</v>
+        <v>28232</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>45870</v>
+        <v>45968</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4730043165518457</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3694126673713886</v>
+        <v>0.3613712112284423</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5871346201921991</v>
+        <v>0.5883784650175095</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>46</v>
@@ -4166,19 +4166,19 @@
         <v>50935</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>39149</v>
+        <v>40125</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>60839</v>
+        <v>62529</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4593044341277656</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3530287942121264</v>
+        <v>0.3618305679172915</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5486206876473211</v>
+        <v>0.5638537535864875</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>83</v>
@@ -4187,19 +4187,19 @@
         <v>87888</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>73573</v>
+        <v>73742</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>101606</v>
+        <v>100642</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4649668479634837</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3892305363118991</v>
+        <v>0.3901254965733364</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5375370782780222</v>
+        <v>0.5324361495323463</v>
       </c>
     </row>
     <row r="21">
@@ -4216,19 +4216,19 @@
         <v>31225</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>22412</v>
+        <v>22997</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>39610</v>
+        <v>40048</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3996707417676003</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2868637619427106</v>
+        <v>0.2943552821706206</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5070053356768202</v>
+        <v>0.5126134817887303</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>46</v>
@@ -4237,19 +4237,19 @@
         <v>49782</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>40469</v>
+        <v>38445</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>62642</v>
+        <v>60709</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4489085666642307</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3649349148531854</v>
+        <v>0.3466755035182522</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5648731958449054</v>
+        <v>0.5474474053289904</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>77</v>
@@ -4258,19 +4258,19 @@
         <v>81006</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>66581</v>
+        <v>68865</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>95427</v>
+        <v>95938</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4285576663933426</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3522392183069264</v>
+        <v>0.3643239774289651</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5048501174427696</v>
+        <v>0.507550961925063</v>
       </c>
     </row>
     <row r="22">
@@ -4287,19 +4287,19 @@
         <v>9947</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5303</v>
+        <v>4375</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17389</v>
+        <v>17181</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.127324941680554</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0678762073919912</v>
+        <v>0.05600358855915304</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2225789494178144</v>
+        <v>0.2199119080585003</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -4308,19 +4308,19 @@
         <v>10179</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5388</v>
+        <v>5299</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18222</v>
+        <v>17181</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09178699920800375</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04858436780047677</v>
+        <v>0.04778277115754094</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.164320127954348</v>
+        <v>0.1549303460703573</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>19</v>
@@ -4329,19 +4329,19 @@
         <v>20126</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>12173</v>
+        <v>12654</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>29519</v>
+        <v>29623</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1064754856431736</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06440113051960446</v>
+        <v>0.06694518494668444</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1561669884873085</v>
+        <v>0.156715502998919</v>
       </c>
     </row>
     <row r="23">
@@ -4433,19 +4433,19 @@
         <v>7468</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3802</v>
+        <v>3676</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10478</v>
+        <v>10462</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5981691571576463</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3045410589806686</v>
+        <v>0.2944097309713049</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8392559001552614</v>
+        <v>0.8379400175192642</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>32</v>
@@ -4454,19 +4454,19 @@
         <v>33461</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>25130</v>
+        <v>25067</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>41764</v>
+        <v>41912</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5058229406544796</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3798956445507027</v>
+        <v>0.3789420209513533</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6313371963263537</v>
+        <v>0.6335867767537222</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>40</v>
@@ -4475,19 +4475,19 @@
         <v>40929</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>33271</v>
+        <v>31864</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>50873</v>
+        <v>49433</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5204845018684395</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4230981299497605</v>
+        <v>0.40521318118729</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6469382758082524</v>
+        <v>0.6286362111795822</v>
       </c>
     </row>
     <row r="25">
@@ -4504,19 +4504,19 @@
         <v>5017</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2007</v>
+        <v>2023</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8683</v>
+        <v>8809</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4018308428423538</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1607440998447386</v>
+        <v>0.1620599824807359</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6954589410193321</v>
+        <v>0.7055902690286951</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>23</v>
@@ -4525,19 +4525,19 @@
         <v>23630</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>16022</v>
+        <v>15678</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>31735</v>
+        <v>31417</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3572174554562044</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2422101981500016</v>
+        <v>0.2370039951893188</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4797400527535103</v>
+        <v>0.4749318786715926</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>28</v>
@@ -4546,19 +4546,19 @@
         <v>28647</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>20470</v>
+        <v>19900</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>36519</v>
+        <v>37617</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3643006033629917</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2603074712162103</v>
+        <v>0.2530696999470186</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4644048382090358</v>
+        <v>0.4783732932815769</v>
       </c>
     </row>
     <row r="26">
@@ -4588,19 +4588,19 @@
         <v>9060</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4007</v>
+        <v>4066</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>15985</v>
+        <v>17063</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1369596038893159</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06057988204904028</v>
+        <v>0.06146902891945502</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2416394830013667</v>
+        <v>0.2579387526119572</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8</v>
@@ -4609,19 +4609,19 @@
         <v>9060</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4147</v>
+        <v>4070</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>18479</v>
+        <v>16567</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1152148947685687</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05274051011282713</v>
+        <v>0.05175186913566152</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2349961677911175</v>
+        <v>0.2106742437039487</v>
       </c>
     </row>
     <row r="27">
@@ -4713,19 +4713,19 @@
         <v>240119</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>215106</v>
+        <v>214245</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>265324</v>
+        <v>267626</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.387117933726461</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3467927825103572</v>
+        <v>0.3454050790594896</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4277534387790796</v>
+        <v>0.4314645460506028</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>206</v>
@@ -4734,19 +4734,19 @@
         <v>222549</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>200998</v>
+        <v>201051</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>246460</v>
+        <v>245058</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4551261216259911</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.411052678150856</v>
+        <v>0.4111610251533833</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5040247500504481</v>
+        <v>0.5011592748814391</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>433</v>
@@ -4755,19 +4755,19 @@
         <v>462668</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>428431</v>
+        <v>429292</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>497594</v>
+        <v>496054</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4170973709992102</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3862327100154795</v>
+        <v>0.3870085012873993</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.448583446896749</v>
+        <v>0.4471950505643372</v>
       </c>
     </row>
     <row r="29">
@@ -4784,19 +4784,19 @@
         <v>298820</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>273763</v>
+        <v>273044</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>325978</v>
+        <v>324755</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4817550852355855</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4413587534125671</v>
+        <v>0.4401989963695129</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5255402342807131</v>
+        <v>0.5235678336788262</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>184</v>
@@ -4805,19 +4805,19 @@
         <v>202073</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>178243</v>
+        <v>180045</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>223504</v>
+        <v>223875</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4132522181000173</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3645184995950032</v>
+        <v>0.3682036463983131</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4570802721936963</v>
+        <v>0.4578378688666523</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>457</v>
@@ -4826,19 +4826,19 @@
         <v>500893</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>469824</v>
+        <v>466765</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>536079</v>
+        <v>536459</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4515575829682382</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4235484307030039</v>
+        <v>0.420790766099661</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4832781757849252</v>
+        <v>0.4836209523534279</v>
       </c>
     </row>
     <row r="30">
@@ -4855,19 +4855,19 @@
         <v>81335</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>64234</v>
+        <v>65487</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>101527</v>
+        <v>102590</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1311269810379536</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1035577990356174</v>
+        <v>0.1055775134454515</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1636816004963403</v>
+        <v>0.1653950779251201</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>59</v>
@@ -4876,19 +4876,19 @@
         <v>64361</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>50674</v>
+        <v>47498</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>82713</v>
+        <v>79183</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1316216602739916</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1036309769762696</v>
+        <v>0.09713631261415327</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1691524556079846</v>
+        <v>0.1619346797863311</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>128</v>
@@ -4897,19 +4897,19 @@
         <v>145695</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>121817</v>
+        <v>122673</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>170893</v>
+        <v>170243</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1313450460325516</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1098188545949616</v>
+        <v>0.1105900902662017</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1540613236831399</v>
+        <v>0.1534744950713539</v>
       </c>
     </row>
     <row r="31">
@@ -5243,19 +5243,19 @@
         <v>15422</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9216</v>
+        <v>8368</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23177</v>
+        <v>23757</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2585794533981228</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1545304573611603</v>
+        <v>0.1403019814543873</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3886094366081142</v>
+        <v>0.3983327899958534</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -5264,19 +5264,19 @@
         <v>3925</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1033</v>
+        <v>948</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8699</v>
+        <v>9902</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1154822061822792</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0304016636197036</v>
+        <v>0.02787713528119119</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2559223654745333</v>
+        <v>0.2913113423456763</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -5285,19 +5285,19 @@
         <v>19347</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11749</v>
+        <v>12521</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28265</v>
+        <v>28073</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2066314487683549</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1254878819584596</v>
+        <v>0.1337320539870488</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3018747783183239</v>
+        <v>0.2998313455179737</v>
       </c>
     </row>
     <row r="5">
@@ -5314,19 +5314,19 @@
         <v>30539</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23097</v>
+        <v>21902</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>38689</v>
+        <v>38295</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5120621943192428</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3872805261762606</v>
+        <v>0.3672401470649904</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6487113314935393</v>
+        <v>0.6420949203672467</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -5335,19 +5335,19 @@
         <v>25011</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19543</v>
+        <v>19174</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29709</v>
+        <v>30061</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7358437813131729</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5749756553683397</v>
+        <v>0.5640978905341432</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.874053313525447</v>
+        <v>0.884412213459748</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>52</v>
@@ -5356,19 +5356,19 @@
         <v>55551</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>46290</v>
+        <v>45095</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>65654</v>
+        <v>65029</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5933007027000692</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4943923092474368</v>
+        <v>0.4816296928081333</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.701210341897507</v>
+        <v>0.6945273305333534</v>
       </c>
     </row>
     <row r="6">
@@ -5385,19 +5385,19 @@
         <v>13679</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7467</v>
+        <v>7866</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21073</v>
+        <v>22053</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2293583522826344</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1252028499773529</v>
+        <v>0.1318851503759736</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3533374686021704</v>
+        <v>0.3697619973357694</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -5406,19 +5406,19 @@
         <v>5053</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1969</v>
+        <v>2011</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10092</v>
+        <v>11165</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1486740125045479</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05794149492988992</v>
+        <v>0.05916449773131039</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2968976053924686</v>
+        <v>0.3284767070674445</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>18</v>
@@ -5427,19 +5427,19 @@
         <v>18732</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11204</v>
+        <v>12053</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>27882</v>
+        <v>28101</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2000678485315759</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.11966392877179</v>
+        <v>0.1287272600236529</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2977865657338298</v>
+        <v>0.3001292119314147</v>
       </c>
     </row>
     <row r="7">
@@ -5531,19 +5531,19 @@
         <v>13018</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7143</v>
+        <v>7855</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20118</v>
+        <v>20202</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2492703990398129</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1367694634088256</v>
+        <v>0.1503948125288217</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3852144390261484</v>
+        <v>0.3868262149509041</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>13</v>
@@ -5552,19 +5552,19 @@
         <v>14511</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8159</v>
+        <v>8424</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>21529</v>
+        <v>21267</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3384892607874795</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1903099552502699</v>
+        <v>0.196498218077285</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5021708087596464</v>
+        <v>0.4960689770617059</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>26</v>
@@ -5573,19 +5573,19 @@
         <v>27530</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>19185</v>
+        <v>19064</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>38305</v>
+        <v>36696</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2894911355464481</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2017411930802705</v>
+        <v>0.2004662353042351</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4027950565259608</v>
+        <v>0.3858747394502452</v>
       </c>
     </row>
     <row r="9">
@@ -5602,19 +5602,19 @@
         <v>26210</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>18587</v>
+        <v>18907</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>33870</v>
+        <v>33227</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5018657099113875</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.35590091695947</v>
+        <v>0.3620269363416698</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.648528785166219</v>
+        <v>0.6362228320916451</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>22</v>
@@ -5623,19 +5623,19 @@
         <v>23494</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>16320</v>
+        <v>16455</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>30355</v>
+        <v>30133</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5480259243507386</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3806725422614951</v>
+        <v>0.3838244338181054</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7080505908387782</v>
+        <v>0.7028752697247892</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>46</v>
@@ -5644,19 +5644,19 @@
         <v>49705</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>40048</v>
+        <v>39800</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>59244</v>
+        <v>59645</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5226751865813078</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4211316410480622</v>
+        <v>0.4185219310815461</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6229886995263899</v>
+        <v>0.6271979970137851</v>
       </c>
     </row>
     <row r="10">
@@ -5673,19 +5673,19 @@
         <v>12997</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6981</v>
+        <v>7078</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21022</v>
+        <v>21436</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2488638910487996</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1336688144797593</v>
+        <v>0.1355192125211692</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4025165246638098</v>
+        <v>0.4104460255686287</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -5694,19 +5694,19 @@
         <v>4865</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1889</v>
+        <v>1826</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10392</v>
+        <v>10330</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.113484814861782</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04405152105502939</v>
+        <v>0.04259927402684292</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2424046644970709</v>
+        <v>0.2409618602048512</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -5715,19 +5715,19 @@
         <v>17862</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10378</v>
+        <v>10863</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26255</v>
+        <v>26674</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.187833677872244</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1091299113262203</v>
+        <v>0.1142284667076593</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2760858249779549</v>
+        <v>0.2804879041613149</v>
       </c>
     </row>
     <row r="11">
@@ -5819,19 +5819,19 @@
         <v>22167</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14587</v>
+        <v>14153</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>33647</v>
+        <v>31343</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2244458852347658</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1477025826059828</v>
+        <v>0.1433018496237654</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3406919820262226</v>
+        <v>0.3173560534261294</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -5840,19 +5840,19 @@
         <v>7886</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3714</v>
+        <v>3700</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13328</v>
+        <v>13393</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2826185929489677</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.133089765238517</v>
+        <v>0.1325845871093082</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4776408302898803</v>
+        <v>0.4799738566440294</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>27</v>
@@ -5861,19 +5861,19 @@
         <v>30053</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>21499</v>
+        <v>20974</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>40791</v>
+        <v>41557</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2372612125837727</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1697327517948229</v>
+        <v>0.1655848800764559</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3220346631467875</v>
+        <v>0.3280865441208509</v>
       </c>
     </row>
     <row r="13">
@@ -5890,19 +5890,19 @@
         <v>62943</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>52793</v>
+        <v>52307</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>72831</v>
+        <v>71626</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6373199753361461</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.534543792689965</v>
+        <v>0.5296242393154732</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7374375814072639</v>
+        <v>0.7252398212286443</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -5911,19 +5911,19 @@
         <v>16113</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10695</v>
+        <v>10450</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21783</v>
+        <v>21129</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5774458807538522</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.383265355661463</v>
+        <v>0.3745122859448646</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7806537048225147</v>
+        <v>0.7572196904856369</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>73</v>
@@ -5932,19 +5932,19 @@
         <v>79056</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>68020</v>
+        <v>65898</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>89598</v>
+        <v>90014</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6241298359744507</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5370013634791185</v>
+        <v>0.5202466594476292</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7073599269725954</v>
+        <v>0.710643587292095</v>
       </c>
     </row>
     <row r="14">
@@ -5961,19 +5961,19 @@
         <v>13652</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7990</v>
+        <v>7976</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22046</v>
+        <v>22227</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1382341394290881</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08089653931962067</v>
+        <v>0.08076179160896169</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2232185170446377</v>
+        <v>0.2250531553603191</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -5982,19 +5982,19 @@
         <v>3905</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1036</v>
+        <v>1008</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11132</v>
+        <v>10240</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1399355262971801</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03714468193938334</v>
+        <v>0.03613951676546718</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3989280781026154</v>
+        <v>0.3669618540540636</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>16</v>
@@ -6003,19 +6003,19 @@
         <v>17557</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10948</v>
+        <v>10536</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>27631</v>
+        <v>27929</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1386089514417766</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08643322643275486</v>
+        <v>0.08317559248512742</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2181377778945397</v>
+        <v>0.2204910637968195</v>
       </c>
     </row>
     <row r="15">
@@ -6107,19 +6107,19 @@
         <v>46131</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>34151</v>
+        <v>35461</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>58568</v>
+        <v>59802</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2550163417178429</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1887874799835815</v>
+        <v>0.1960309919138906</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.323763915094457</v>
+        <v>0.3305861412716027</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>50</v>
@@ -6128,19 +6128,19 @@
         <v>50915</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>40048</v>
+        <v>40123</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>62015</v>
+        <v>62257</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3638368508284162</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2861827681237057</v>
+        <v>0.2867141511910108</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4431541835904595</v>
+        <v>0.4448861021406259</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>95</v>
@@ -6149,19 +6149,19 @@
         <v>97047</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>81927</v>
+        <v>83027</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>114478</v>
+        <v>114825</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3024809742508041</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2553548712433895</v>
+        <v>0.258782805557465</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3568106553935292</v>
+        <v>0.3578931756907111</v>
       </c>
     </row>
     <row r="17">
@@ -6178,19 +6178,19 @@
         <v>96595</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>82245</v>
+        <v>82547</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>110584</v>
+        <v>109144</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5339821537583455</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4546521467923825</v>
+        <v>0.4563236950158862</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6113128726777449</v>
+        <v>0.6033528580756068</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>63</v>
@@ -6199,19 +6199,19 @@
         <v>64025</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>52117</v>
+        <v>51807</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>76112</v>
+        <v>75053</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4575203820635586</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3724261737275382</v>
+        <v>0.3702097563175953</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5438927724656404</v>
+        <v>0.5363213504632868</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>156</v>
@@ -6220,19 +6220,19 @@
         <v>160621</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>144205</v>
+        <v>143388</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>178693</v>
+        <v>179703</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5006315480133885</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4494675862216222</v>
+        <v>0.4469206191504515</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5569603829011374</v>
+        <v>0.5601085196708778</v>
       </c>
     </row>
     <row r="18">
@@ -6249,19 +6249,19 @@
         <v>38169</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>29023</v>
+        <v>28073</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>51402</v>
+        <v>50506</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2110015045238117</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1604382466074423</v>
+        <v>0.1551862275437926</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2841510567217837</v>
+        <v>0.2791995596919326</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>24</v>
@@ -6270,19 +6270,19 @@
         <v>24999</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16611</v>
+        <v>17021</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>34905</v>
+        <v>36028</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1786427671080252</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1186984739494192</v>
+        <v>0.1216329008179122</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2494309299808261</v>
+        <v>0.2574539046599941</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>59</v>
@@ -6291,19 +6291,19 @@
         <v>63169</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>49825</v>
+        <v>49937</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>78708</v>
+        <v>79018</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1968874777358075</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1552974831728083</v>
+        <v>0.155646433409736</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2453212101807194</v>
+        <v>0.2462887308848495</v>
       </c>
     </row>
     <row r="19">
@@ -6395,19 +6395,19 @@
         <v>21895</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>14364</v>
+        <v>13696</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>31898</v>
+        <v>30687</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2530521028018883</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.166013275678193</v>
+        <v>0.1582908954590294</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3686524543986422</v>
+        <v>0.354660910466324</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>28</v>
@@ -6416,19 +6416,19 @@
         <v>27827</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>19396</v>
+        <v>19134</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>36607</v>
+        <v>36822</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2997880746701111</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2089553149113129</v>
+        <v>0.2061350224325893</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3943758155126821</v>
+        <v>0.396691287400055</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>47</v>
@@ -6437,19 +6437,19 @@
         <v>49723</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>38418</v>
+        <v>37529</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>62711</v>
+        <v>62676</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2772406330771436</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.21421086596984</v>
+        <v>0.2092537668808922</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3496612130061816</v>
+        <v>0.3494643988675709</v>
       </c>
     </row>
     <row r="21">
@@ -6466,19 +6466,19 @@
         <v>49364</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>38984</v>
+        <v>39037</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>58238</v>
+        <v>58855</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5705150328039447</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4505521756474384</v>
+        <v>0.4511612273817937</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6730734578190962</v>
+        <v>0.6802118651198543</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>50</v>
@@ -6487,19 +6487,19 @@
         <v>49173</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>40603</v>
+        <v>39497</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>58849</v>
+        <v>57797</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5297540063765236</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4374202038160099</v>
+        <v>0.4255102856355306</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6339913849486423</v>
+        <v>0.6226624039629424</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>94</v>
@@ -6508,19 +6508,19 @@
         <v>98537</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>84594</v>
+        <v>86017</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>112327</v>
+        <v>112619</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5494188774790881</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4716735997176386</v>
+        <v>0.4796103592837161</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6263067839476197</v>
+        <v>0.6279356027471952</v>
       </c>
     </row>
     <row r="22">
@@ -6537,19 +6537,19 @@
         <v>15266</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8742</v>
+        <v>8737</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>23367</v>
+        <v>23834</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.176432864394167</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1010334126830891</v>
+        <v>0.1009764607468499</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2700574250134707</v>
+        <v>0.2754588181428649</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>15</v>
@@ -6558,19 +6558,19 @@
         <v>15822</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9256</v>
+        <v>9242</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23816</v>
+        <v>24720</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1704579189533653</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09972011321593528</v>
+        <v>0.09956971791551206</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.256571939066658</v>
+        <v>0.2663153270453935</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>30</v>
@@ -6579,19 +6579,19 @@
         <v>31088</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>21876</v>
+        <v>21415</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>42110</v>
+        <v>42509</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1733404894437683</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1219753184585926</v>
+        <v>0.1194050994032733</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2347962460956843</v>
+        <v>0.2370186409293067</v>
       </c>
     </row>
     <row r="23">
@@ -6683,19 +6683,19 @@
         <v>11502</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6679</v>
+        <v>6698</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15600</v>
+        <v>15277</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5824851769465108</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3382199160992572</v>
+        <v>0.3391901413422254</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7899956309836483</v>
+        <v>0.7736157892570832</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>17</v>
@@ -6704,19 +6704,19 @@
         <v>18647</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>12472</v>
+        <v>12180</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>27743</v>
+        <v>27075</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3116753178022649</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.208469403820975</v>
+        <v>0.2035775026817001</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4637118939489288</v>
+        <v>0.4525526488881697</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>29</v>
@@ -6725,19 +6725,19 @@
         <v>30149</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>21970</v>
+        <v>22075</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>39466</v>
+        <v>39265</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3788778985589718</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2760941045889226</v>
+        <v>0.2774113497720607</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4959700179272699</v>
+        <v>0.4934435007114099</v>
       </c>
     </row>
     <row r="25">
@@ -6754,19 +6754,19 @@
         <v>7238</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3293</v>
+        <v>4059</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12149</v>
+        <v>11938</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3665278877380712</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1667575498602085</v>
+        <v>0.2055550756410648</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6152299221799606</v>
+        <v>0.604542581433153</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>27</v>
@@ -6775,19 +6775,19 @@
         <v>29294</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20644</v>
+        <v>21872</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>37114</v>
+        <v>37122</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4896427202578348</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3450603442815343</v>
+        <v>0.3655838475677405</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6203389792328285</v>
+        <v>0.6204778868292591</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>34</v>
@@ -6796,19 +6796,19 @@
         <v>36532</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>27892</v>
+        <v>26803</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>46456</v>
+        <v>45825</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4590912680289448</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.350522124597441</v>
+        <v>0.3368348110816702</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5838126556788517</v>
+        <v>0.5758802380553206</v>
       </c>
     </row>
     <row r="26">
@@ -6828,7 +6828,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4563</v>
+        <v>4125</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.05098693531541804</v>
@@ -6837,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2310542199281879</v>
+        <v>0.208912845904699</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -6846,19 +6846,19 @@
         <v>11887</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6133</v>
+        <v>6619</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>18817</v>
+        <v>18918</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1986819619399003</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.102511473543936</v>
+        <v>0.1106398828368422</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3145236279033923</v>
+        <v>0.3162100028465386</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>12</v>
@@ -6867,19 +6867,19 @@
         <v>12893</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6730</v>
+        <v>7376</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>21145</v>
+        <v>21615</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1620308334120834</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08457668426787346</v>
+        <v>0.09269262517724526</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2657257450241854</v>
+        <v>0.2716393578444339</v>
       </c>
     </row>
     <row r="27">
@@ -6971,19 +6971,19 @@
         <v>130136</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>110983</v>
+        <v>110228</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>151230</v>
+        <v>151763</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2614239915137834</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2229489529675188</v>
+        <v>0.221433034143456</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3038003171525726</v>
+        <v>0.3048700679606409</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>120</v>
@@ -6992,19 +6992,19 @@
         <v>123712</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>106473</v>
+        <v>105949</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>141557</v>
+        <v>142971</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3113385587325899</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.267954135870157</v>
+        <v>0.2666353516332444</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.356248512328872</v>
+        <v>0.359806262175597</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>241</v>
@@ -7013,19 +7013,19 @@
         <v>253848</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>230104</v>
+        <v>226986</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>284401</v>
+        <v>285270</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2835809601811096</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.257056234280463</v>
+        <v>0.2535723324232799</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3177123279484869</v>
+        <v>0.3186839995268398</v>
       </c>
     </row>
     <row r="29">
@@ -7042,19 +7042,19 @@
         <v>272889</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>249413</v>
+        <v>249042</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>295075</v>
+        <v>296623</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.548195897792384</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5010352930704559</v>
+        <v>0.5002898665980757</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5927641269697314</v>
+        <v>0.5958728681898154</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>201</v>
@@ -7063,19 +7063,19 @@
         <v>207111</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>189114</v>
+        <v>187925</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>226997</v>
+        <v>227857</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5212250990859787</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4759333290163758</v>
+        <v>0.4729404667455104</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5712704036113873</v>
+        <v>0.5734342327107399</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>455</v>
@@ -7084,19 +7084,19 @@
         <v>480001</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>447353</v>
+        <v>449703</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>507292</v>
+        <v>510207</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5362236184525477</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.49975111459077</v>
+        <v>0.5023765466103424</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5667106910529751</v>
+        <v>0.5699675113834887</v>
       </c>
     </row>
     <row r="30">
@@ -7113,19 +7113,19 @@
         <v>94770</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>76784</v>
+        <v>76985</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>114054</v>
+        <v>113351</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1903801106938327</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1542486672771701</v>
+        <v>0.1546527286481397</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2291174109741941</v>
+        <v>0.2277052374779224</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>63</v>
@@ -7134,19 +7134,19 @@
         <v>66532</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>52583</v>
+        <v>50743</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>82932</v>
+        <v>81956</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1674363421814314</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1323334025522288</v>
+        <v>0.1277028649224475</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2087098610260536</v>
+        <v>0.2062548359518638</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>151</v>
@@ -7155,19 +7155,19 @@
         <v>161302</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>139826</v>
+        <v>139250</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>185705</v>
+        <v>185750</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1801954213663427</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1562032950374188</v>
+        <v>0.1555600922569221</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2074562381324927</v>
+        <v>0.2075073529995348</v>
       </c>
     </row>
     <row r="31">
